--- a/public/productos.xlsx
+++ b/public/productos.xlsx
@@ -430,7 +430,7 @@
         <v>6.849.000</v>
       </c>
       <c r="C2" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1634340868-benelli-leoncino-250-cred-prendario-san-martin-_JM#polycard_client=search-nordic&amp;position=1&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1634340868-benelli-leoncino-250-cred-prendario-san-martin-_JM#polycard_client=search-nordic&amp;position=1&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D2" t="str">
         <v>General San Martín - Bs.As. G.B.A. Norte</v>
@@ -450,7 +450,7 @@
         <v>6.849.007</v>
       </c>
       <c r="C3" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402945631-benelli-leoncino-250-cred-prendario-berazategui-_JM#polycard_client=search-nordic&amp;position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402945631-benelli-leoncino-250-cred-prendario-berazategui-_JM#polycard_client=search-nordic&amp;position=2&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D3" t="str">
         <v>Berazategui - Bs.As. G.B.A. Sur</v>
@@ -470,7 +470,7 @@
         <v>6.849.005</v>
       </c>
       <c r="C4" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402930857-benelli-leoncino-250-cred-prendario-quilmes-_JM#polycard_client=search-nordic&amp;position=3&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402930857-benelli-leoncino-250-cred-prendario-quilmes-_JM#polycard_client=search-nordic&amp;position=3&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D4" t="str">
         <v>Quilmes - Bs.As. G.B.A. Sur</v>
@@ -490,7 +490,7 @@
         <v>6.849.005</v>
       </c>
       <c r="C5" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402905585-benelli-leoncino-250-cred-prendario-san-fernando-_JM#polycard_client=search-nordic&amp;position=4&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402905585-benelli-leoncino-250-cred-prendario-san-fernando-_JM#polycard_client=search-nordic&amp;position=4&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D5" t="str">
         <v>San Fernando - Bs.As. G.B.A. Norte</v>
@@ -510,7 +510,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C6" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1607545500-benelli-leoncino-500-trail-mejor-contado-k-_JM#polycard_client=search-nordic&amp;position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1607545500-benelli-leoncino-500-trail-mejor-contado-k-_JM#polycard_client=search-nordic&amp;position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D6" t="str">
         <v>Pilar - Bs.As. G.B.A. Norte</v>
@@ -530,7 +530,7 @@
         <v>6.849.010</v>
       </c>
       <c r="C7" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1457725733-benelli-leoncino-250-cred-prendario-motozuni-_JM#polycard_client=search-nordic&amp;position=6&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1457725733-benelli-leoncino-250-cred-prendario-motozuni-_JM#polycard_client=search-nordic&amp;position=6&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D7" t="str">
         <v>La Matanza - Bs.As. G.B.A. Oeste</v>
@@ -550,7 +550,7 @@
         <v>6.849.000</v>
       </c>
       <c r="C8" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1626742796-benelli-leoncino-250-cred-prendario-motozuni-avellaneda-_JM#polycard_client=search-nordic&amp;position=7&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1626742796-benelli-leoncino-250-cred-prendario-motozuni-avellaneda-_JM#polycard_client=search-nordic&amp;position=7&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D8" t="str">
         <v>Avellaneda - Bs.As. G.B.A. Sur</v>
@@ -570,7 +570,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C9" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1600746508-benelli-leoncino-500-trial-ahora-12-y-18-g-_JM#polycard_client=search-nordic&amp;position=8&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1600746508-benelli-leoncino-500-trial-ahora-12-y-18-g-_JM#polycard_client=search-nordic&amp;position=8&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D9" t="str">
         <v>Pilar - Bs.As. G.B.A. Norte</v>
@@ -590,7 +590,7 @@
         <v>10.700.000</v>
       </c>
       <c r="C10" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1422108015-voge-500-ac-no-leoncino-500-250-350-ac-_JM#polycard_client=search-nordic&amp;position=9&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1422108015-voge-500-ac-no-leoncino-500-250-350-ac-_JM#polycard_client=search-nordic&amp;position=9&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D10" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -610,7 +610,7 @@
         <v>12.175.990</v>
       </c>
       <c r="C11" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1459385865-cfmoto-650-nk-benelli-502c-500ac-leoncino-500-400nk-_JM#polycard_client=search-nordic&amp;position=10&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1459385865-cfmoto-650-nk-benelli-502c-500ac-leoncino-500-400nk-_JM#polycard_client=search-nordic&amp;position=10&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D11" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -630,7 +630,7 @@
         <v>14.100.000</v>
       </c>
       <c r="C12" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1634340870-benelli-leoncino-500-cred-prendario-san-martin-_JM#polycard_client=search-nordic&amp;position=11&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1634340870-benelli-leoncino-500-cred-prendario-san-martin-_JM#polycard_client=search-nordic&amp;position=11&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D12" t="str">
         <v>General San Martín - Bs.As. G.B.A. Norte</v>
@@ -650,7 +650,7 @@
         <v>14.100.007</v>
       </c>
       <c r="C13" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402945633-benelli-leoncino-500-cred-prendario-berazategui-_JM#polycard_client=search-nordic&amp;position=12&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402945633-benelli-leoncino-500-cred-prendario-berazategui-_JM#polycard_client=search-nordic&amp;position=12&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D13" t="str">
         <v>Berazategui - Bs.As. G.B.A. Sur</v>
@@ -670,7 +670,7 @@
         <v>14.100.005</v>
       </c>
       <c r="C14" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402885839-benelli-leoncino-500-cred-prendario-quilmes-_JM#polycard_client=search-nordic&amp;position=13&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402885839-benelli-leoncino-500-cred-prendario-quilmes-_JM#polycard_client=search-nordic&amp;position=13&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D14" t="str">
         <v>Quilmes - Bs.As. G.B.A. Sur</v>
@@ -690,7 +690,7 @@
         <v>14.100.005</v>
       </c>
       <c r="C15" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402943431-benelli-leoncino-500-cred-prendario-san-fernando-_JM#polycard_client=search-nordic&amp;position=14&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402943431-benelli-leoncino-500-cred-prendario-san-fernando-_JM#polycard_client=search-nordic&amp;position=14&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D15" t="str">
         <v>San Fernando - Bs.As. G.B.A. Norte</v>
@@ -710,7 +710,7 @@
         <v>14.100.010</v>
       </c>
       <c r="C16" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1457712717-benelli-leoncino-500-cred-prendario-motozuni-_JM#polycard_client=search-nordic&amp;position=15&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1457712717-benelli-leoncino-500-cred-prendario-motozuni-_JM#polycard_client=search-nordic&amp;position=15&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D16" t="str">
         <v>La Matanza - Bs.As. G.B.A. Oeste</v>
@@ -730,7 +730,7 @@
         <v>13.115.000</v>
       </c>
       <c r="C17" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1888220502-benelli-leoncino-500t-stock-fisico-creditos-prendarios7-_JM#polycard_client=search-nordic&amp;position=16&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1888220502-benelli-leoncino-500t-stock-fisico-creditos-prendarios7-_JM#polycard_client=search-nordic&amp;position=16&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D17" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -750,7 +750,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C18" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1412803539-benelli-leoncino-500-trail-okm-credito-prendario-tamburrino-_JM#polycard_client=search-nordic&amp;position=17&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1412803539-benelli-leoncino-500-trail-okm-credito-prendario-tamburrino-_JM#polycard_client=search-nordic&amp;position=17&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D18" t="str">
         <v>Almirante Brown - Bs.As. G.B.A. Sur</v>
@@ -770,7 +770,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C19" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1455925863-benelli-leoncino-500-trail-prendario-tasa-0-_JM#polycard_client=search-nordic&amp;position=18&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1455925863-benelli-leoncino-500-trail-prendario-tasa-0-_JM#polycard_client=search-nordic&amp;position=18&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D19" t="str">
         <v>Quilmes - Bs.As. G.B.A. Sur</v>
@@ -790,7 +790,7 @@
         <v>6.849.010</v>
       </c>
       <c r="C20" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402899903-benelli-leoncino-250-cred-prendario-motozuni-m-grande-_JM#polycard_client=search-nordic&amp;position=19&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402899903-benelli-leoncino-250-cred-prendario-motozuni-m-grande-_JM#polycard_client=search-nordic&amp;position=19&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D20" t="str">
         <v>Esteban Echeverría - Bs.As. G.B.A. Sur</v>
@@ -810,7 +810,7 @@
         <v>11.190.000</v>
       </c>
       <c r="C21" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1612796180-benelli-leoncino-500-abs-_JM#polycard_client=search-nordic&amp;position=20&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1612796180-benelli-leoncino-500-abs-_JM#polycard_client=search-nordic&amp;position=20&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D21" t="str">
         <v>Resistencia - Chaco</v>
@@ -830,7 +830,7 @@
         <v>6.849.003</v>
       </c>
       <c r="C22" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402943385-benelli-leoncino-250-cred-prendario-promo-caba-_JM#polycard_client=search-nordic&amp;position=21&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402943385-benelli-leoncino-250-cred-prendario-promo-caba-_JM#polycard_client=search-nordic&amp;position=21&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D22" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -850,7 +850,7 @@
         <v>11.000.000</v>
       </c>
       <c r="C23" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1938465140-benelli-leoncino-500-ano-2023-0km-permutas-financiacion-_JM#polycard_client=search-nordic&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1938465140-benelli-leoncino-500-ano-2023-0km-permutas-financiacion-_JM#polycard_client=search-nordic&amp;position=22&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D23" t="str">
         <v>Lomas De Zamora - Bs.As. G.B.A. Sur</v>
@@ -870,7 +870,7 @@
         <v>6.849.010</v>
       </c>
       <c r="C24" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1457712375-benelli-leoncino-250-cred-prendario-motozuni-_JM#polycard_client=search-nordic&amp;position=23&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1457712375-benelli-leoncino-250-cred-prendario-motozuni-_JM#polycard_client=search-nordic&amp;position=23&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D24" t="str">
         <v>Lanús - Bs.As. G.B.A. Sur</v>
@@ -890,7 +890,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C25" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1455925809-benelli-leoncino-500-trail-entrega-inmediata-permutas-_JM#polycard_client=search-nordic&amp;position=24&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1455925809-benelli-leoncino-500-trail-entrega-inmediata-permutas-_JM#polycard_client=search-nordic&amp;position=24&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D25" t="str">
         <v>Avellaneda - Bs.As. G.B.A. Sur</v>
@@ -910,7 +910,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C26" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1938400938-benelli-leoncino-500-trail-no-royal-enfielprendario-tasa-0-_JM#polycard_client=search-nordic&amp;position=25&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1938400938-benelli-leoncino-500-trail-no-royal-enfielprendario-tasa-0-_JM#polycard_client=search-nordic&amp;position=25&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D26" t="str">
         <v>Quilmes - Bs.As. G.B.A. Sur</v>
@@ -930,7 +930,7 @@
         <v>6.849.008</v>
       </c>
       <c r="C27" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1626805126-benelli-leoncino-250-cred-prendario-capital-_JM#polycard_client=search-nordic&amp;position=26&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1626805126-benelli-leoncino-250-cred-prendario-capital-_JM#polycard_client=search-nordic&amp;position=26&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D27" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -950,7 +950,7 @@
         <v>6.849.001</v>
       </c>
       <c r="C28" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1626805128-benelli-leoncino-250-cred-prendario-motozuni-lomas-_JM#polycard_client=search-nordic&amp;position=27&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1626805128-benelli-leoncino-250-cred-prendario-motozuni-lomas-_JM#polycard_client=search-nordic&amp;position=27&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D28" t="str">
         <v>Lomas De Zamora - Bs.As. G.B.A. Sur</v>
@@ -970,7 +970,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C29" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1610716688-benelli-leoncino-500-trail-2024-rayos-agrobikes-no-ducati-_JM#polycard_client=search-nordic&amp;position=28&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1610716688-benelli-leoncino-500-trail-2024-rayos-agrobikes-no-ducati-_JM#polycard_client=search-nordic&amp;position=28&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D29" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -990,7 +990,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C30" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1400176053-benelli-leoncino-500-abs-agrobikes-tasa-o-2024-_JM#polycard_client=search-nordic&amp;position=29&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1400176053-benelli-leoncino-500-abs-agrobikes-tasa-o-2024-_JM#polycard_client=search-nordic&amp;position=29&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D30" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -1010,7 +1010,7 @@
         <v>14.100.010</v>
       </c>
       <c r="C31" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402919053-benelli-leoncino-500-cred-prendario-motozuni-m-grande-_JM#polycard_client=search-nordic&amp;position=30&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402919053-benelli-leoncino-500-cred-prendario-motozuni-m-grande-_JM#polycard_client=search-nordic&amp;position=30&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D31" t="str">
         <v>Esteban Echeverría - Bs.As. G.B.A. Sur</v>
@@ -1030,7 +1030,7 @@
         <v>14.100.003</v>
       </c>
       <c r="C32" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402898427-benelli-leoncino-500-cred-prendario-promo-caba-_JM#polycard_client=search-nordic&amp;position=31&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402898427-benelli-leoncino-500-cred-prendario-promo-caba-_JM#polycard_client=search-nordic&amp;position=31&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D32" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -1050,7 +1050,7 @@
         <v>14.100.010</v>
       </c>
       <c r="C33" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1457681281-benelli-leoncino-500-cred-prendario-motozuni-_JM#polycard_client=search-nordic&amp;position=32&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1457681281-benelli-leoncino-500-cred-prendario-motozuni-_JM#polycard_client=search-nordic&amp;position=32&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D33" t="str">
         <v>Lanús - Bs.As. G.B.A. Sur</v>
@@ -1070,7 +1070,7 @@
         <v>14.100.008</v>
       </c>
       <c r="C34" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402032865-benelli-leoncino-500-cred-prendario-capital-_JM#polycard_client=search-nordic&amp;position=33&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402032865-benelli-leoncino-500-cred-prendario-capital-_JM#polycard_client=search-nordic&amp;position=33&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D34" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -1090,7 +1090,7 @@
         <v>14.100.001</v>
       </c>
       <c r="C35" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402045717-benelli-leoncino-500-cred-prendario-motozuni-lomas-_JM#polycard_client=search-nordic&amp;position=34&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402045717-benelli-leoncino-500-cred-prendario-motozuni-lomas-_JM#polycard_client=search-nordic&amp;position=34&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D35" t="str">
         <v>Lomas De Zamora - Bs.As. G.B.A. Sur</v>
@@ -1110,7 +1110,7 @@
         <v>12.999.000</v>
       </c>
       <c r="C36" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1883357370-benelli-leoncino-500-no-royal-enfieldno-honda-cb-500-voge-_JM#polycard_client=search-nordic&amp;position=35&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1883357370-benelli-leoncino-500-no-royal-enfieldno-honda-cb-500-voge-_JM#polycard_client=search-nordic&amp;position=35&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D36" t="str">
         <v>General Obligado - Santa Fe</v>
@@ -1130,7 +1130,7 @@
         <v>11.300.000</v>
       </c>
       <c r="C37" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1586301944-benelli-leoncino-500-no-ducati-scrambler-800-no-husqvarna-_JM#polycard_client=search-nordic&amp;position=36&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1586301944-benelli-leoncino-500-no-ducati-scrambler-800-no-husqvarna-_JM#polycard_client=search-nordic&amp;position=36&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D37" t="str">
         <v>La Plata - Bs.As. G.B.A. Sur</v>
@@ -1150,7 +1150,7 @@
         <v>12.500.000</v>
       </c>
       <c r="C38" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1800784486-benelli-leoncino-500-_JM#polycard_client=search-nordic&amp;position=37&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1800784486-benelli-leoncino-500-_JM#polycard_client=search-nordic&amp;position=37&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D38" t="str">
         <v>General López - Santa Fe</v>
@@ -1170,7 +1170,7 @@
         <v>12.100.000</v>
       </c>
       <c r="C39" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1442150129-benelli-leoncino-500-0km-motofun-_JM#polycard_client=search-nordic&amp;position=38&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1442150129-benelli-leoncino-500-0km-motofun-_JM#polycard_client=search-nordic&amp;position=38&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D39" t="str">
         <v>Mendoza - Mendoza</v>
@@ -1190,7 +1190,7 @@
         <v>11.650.000</v>
       </c>
       <c r="C40" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1800906380-benelli-leoncino-500-_JM#polycard_client=search-nordic&amp;position=39&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1800906380-benelli-leoncino-500-_JM#polycard_client=search-nordic&amp;position=39&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D40" t="str">
         <v>General López - Santa Fe</v>
@@ -1210,7 +1210,7 @@
         <v>14.375.000</v>
       </c>
       <c r="C41" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1431279845-benelli-leoncino-502c-_JM#polycard_client=search-nordic&amp;position=40&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1431279845-benelli-leoncino-502c-_JM#polycard_client=search-nordic&amp;position=40&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D41" t="str">
         <v>General López - Santa Fe</v>
@@ -1230,7 +1230,7 @@
         <v>14.100.000</v>
       </c>
       <c r="C42" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1584401392-benelli-leoncino-500-trail-spagna-_JM#polycard_client=search-nordic&amp;position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1584401392-benelli-leoncino-500-trail-spagna-_JM#polycard_client=search-nordic&amp;position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D42" t="str">
         <v>Santa Fe Capital - Santa Fe</v>
@@ -1250,7 +1250,7 @@
         <v>14.100.000</v>
       </c>
       <c r="C43" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1800944434-benelli-leoncino-500-trail-_JM#polycard_client=search-nordic&amp;position=42&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1800944434-benelli-leoncino-500-trail-_JM#polycard_client=search-nordic&amp;position=42&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D43" t="str">
         <v>General López - Santa Fe</v>
@@ -1270,7 +1270,7 @@
         <v>6.849.010</v>
       </c>
       <c r="C44" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1408895925-benelli-leoncino-250-cred-prendario-caballito-_JM#polycard_client=search-nordic&amp;position=43&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1408895925-benelli-leoncino-250-cred-prendario-caballito-_JM#polycard_client=search-nordic&amp;position=43&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D44" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -1290,7 +1290,7 @@
         <v>6.849.000</v>
       </c>
       <c r="C45" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1402020605-benelli-leoncino-250-cred-prendario-motozuni-avellaneda-_JM#polycard_client=search-nordic&amp;position=44&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1402020605-benelli-leoncino-250-cred-prendario-motozuni-avellaneda-_JM#polycard_client=search-nordic&amp;position=44&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D45" t="str">
         <v>Avellaneda - Bs.As. G.B.A. Sur</v>
@@ -1310,7 +1310,7 @@
         <v>14.100.010</v>
       </c>
       <c r="C46" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1408819575-benelli-leoncino-500-cred-prendario-caballito-_JM#polycard_client=search-nordic&amp;position=45&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1408819575-benelli-leoncino-500-cred-prendario-caballito-_JM#polycard_client=search-nordic&amp;position=45&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D46" t="str">
         <v>Capital Federal - Capital Federal</v>
@@ -1330,7 +1330,7 @@
         <v>14.520.000</v>
       </c>
       <c r="C47" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1434394795-benelli-leoncino-500-trail-0km-_JM#polycard_client=search-nordic&amp;position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1434394795-benelli-leoncino-500-trail-0km-_JM#polycard_client=search-nordic&amp;position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D47" t="str">
         <v>Paraná - Entre Ríos</v>
@@ -1350,7 +1350,7 @@
         <v>13.000.000</v>
       </c>
       <c r="C48" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1438313489-benelli-leoncino-trail-500-consulte-precio-cdo-_JM#polycard_client=search-nordic&amp;position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1438313489-benelli-leoncino-trail-500-consulte-precio-cdo-_JM#polycard_client=search-nordic&amp;position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D48" t="str">
         <v>Iriondo - Santa Fe</v>
@@ -1370,7 +1370,7 @@
         <v>15.212.960</v>
       </c>
       <c r="C49" t="str">
-        <v>https://moto.mercadolibre.com.ar/MLA-1444082205-benelli-leoncino-500-_JM#polycard_client=search-nordic&amp;position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=4798a063-31b6-42d0-ab5c-045656c8ee4a</v>
+        <v>https://moto.mercadolibre.com.ar/MLA-1444082205-benelli-leoncino-500-_JM#polycard_client=search-nordic&amp;position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=7edc41f5-7ad8-4eca-843e-5181596935db</v>
       </c>
       <c r="D49" t="str">
         <v>Escalante - Chubut</v>
